--- a/01.店舗実績集約/data/銀座店.xlsx
+++ b/01.店舗実績集約/data/銀座店.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7102581\OneDrive - アサヒグループ\デスクトップ\Python\code\github用\01.店舗実績集約\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89293A9-6582-4CB3-B0B7-CA0BEBB4CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5720C829-057F-41E8-94B9-14A10B51991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{71EE945B-874E-4569-8686-57C001667FB8}"/>
   </bookViews>
@@ -36,11 +36,225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>銀座店</t>
     <rPh sb="0" eb="3">
       <t>ギンザテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗No</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗名</t>
+    <rPh sb="0" eb="3">
+      <t>テンポメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月予算</t>
+    <rPh sb="0" eb="3">
+      <t>ツキヨサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A00001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画No</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画名</t>
+    <rPh sb="0" eb="3">
+      <t>キカクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画1</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画2</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画3</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画4</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画5</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画6</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画7</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画8</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画9</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画10</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画区分①</t>
+    <rPh sb="0" eb="4">
+      <t>キカククブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画区分②</t>
+    <rPh sb="0" eb="4">
+      <t>キカククブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画予算</t>
+    <rPh sb="0" eb="4">
+      <t>キカクヨサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画終了日</t>
+    <rPh sb="0" eb="5">
+      <t>キカクシュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画開始日</t>
+    <rPh sb="0" eb="4">
+      <t>キカクカイシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常設</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本部</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品1</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品2</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品3</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品4</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品5</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品6</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -49,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +273,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="2"/>
       <charset val="128"/>
@@ -81,17 +302,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,27 +638,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4EE404-F0A8-4B12-86CC-4CB4960637B4}">
-  <dimension ref="C3:C8"/>
+  <dimension ref="B3:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.78515625" customWidth="1"/>
+    <col min="5" max="5" width="6.35546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.640625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.6">
-      <c r="C8">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>500000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K4" s="3">
+        <f>EOMONTH(J4,0)</f>
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
         <v>1000000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K8" si="0">EOMONTH(J5,0)</f>
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1">
+        <v>500000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K9" s="3">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K10" s="3">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J11" s="3">
+        <v>45977</v>
+      </c>
+      <c r="K11" s="3">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45962</v>
+      </c>
+      <c r="K12" s="3">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <f>I14-SUM(I4:I12)</f>
+        <v>2000000</v>
+      </c>
+      <c r="J13" s="3">
+        <v>45977</v>
+      </c>
+      <c r="K13" s="3">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1">
+        <f>C5</f>
+        <v>10000000</v>
       </c>
     </row>
   </sheetData>
